--- a/samples/DIF_20200429_BlpData.xlsx
+++ b/samples/DIF_20200429_BlpData.xlsx
@@ -5,22 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\git\risk_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3EBB67-E850-452E-9D78-DD618A456BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310DADDB-6E4F-47A6-A511-D666317033ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5928" yWindow="0" windowWidth="15996" windowHeight="11784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geneva_20200429_idntype" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="269">
   <si>
     <t>ID</t>
   </si>
@@ -668,6 +678,165 @@
   </si>
   <si>
     <t>PH</t>
+  </si>
+  <si>
+    <t>INDUSTRY_SECTOR</t>
+  </si>
+  <si>
+    <t>RTG_SP</t>
+  </si>
+  <si>
+    <t>RTG_MOODY</t>
+  </si>
+  <si>
+    <t>RTG_FITCH</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Ba3</t>
+  </si>
+  <si>
+    <t>BB+</t>
+  </si>
+  <si>
+    <t>BB-</t>
+  </si>
+  <si>
+    <t>Consumer, Non-cyclical</t>
+  </si>
+  <si>
+    <t>#N/A</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Baa1</t>
+  </si>
+  <si>
+    <t>B- *-</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B *-</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Baa3</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>B2 *-</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Ba1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A-u</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>BBB+</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>BBB-</t>
+  </si>
+  <si>
+    <t>Consumer, Cyclical</t>
+  </si>
+  <si>
+    <t>BB+ *-</t>
+  </si>
+  <si>
+    <t>Ba2</t>
+  </si>
+  <si>
+    <t>B1 *-</t>
+  </si>
+  <si>
+    <t>Baa2</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>BBB+ *-</t>
+  </si>
+  <si>
+    <t>AA-</t>
+  </si>
+  <si>
+    <t>Aa3</t>
+  </si>
+  <si>
+    <t>Funds</t>
+  </si>
+  <si>
+    <t>BB- *-</t>
+  </si>
+  <si>
+    <t>BB-u</t>
+  </si>
+  <si>
+    <t>AAA</t>
   </si>
 </sst>
 </file>
@@ -1508,24 +1677,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1548,12 +1721,24 @@
         <v>183</v>
       </c>
       <c r="H1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1562,10 +1747,10 @@
         <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
         <v>185</v>
@@ -1574,12 +1759,24 @@
         <v>186</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1588,10 +1785,10 @@
         <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
         <v>185</v>
@@ -1600,12 +1797,24 @@
         <v>186</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1617,7 +1826,7 @@
         <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
         <v>189</v>
@@ -1626,12 +1835,24 @@
         <v>186</v>
       </c>
       <c r="H4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1640,138 +1861,198 @@
         <v>185</v>
       </c>
       <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" t="s">
+        <v>227</v>
+      </c>
+      <c r="L5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K6" t="s">
+        <v>229</v>
+      </c>
+      <c r="L6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" t="s">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" t="s">
         <v>193</v>
       </c>
-      <c r="E7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" t="s">
+        <v>221</v>
+      </c>
+      <c r="L8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
         <v>188</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>188</v>
       </c>
-      <c r="F8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" t="s">
+        <v>234</v>
+      </c>
+      <c r="L9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" t="s">
         <v>193</v>
       </c>
-      <c r="E9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" t="s">
-        <v>191</v>
-      </c>
       <c r="E10" t="s">
         <v>192</v>
       </c>
@@ -1782,10 +2063,22 @@
         <v>186</v>
       </c>
       <c r="H10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" t="s">
+        <v>235</v>
+      </c>
+      <c r="K10" t="s">
+        <v>221</v>
+      </c>
+      <c r="L10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1808,12 +2101,24 @@
         <v>186</v>
       </c>
       <c r="H11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I11" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K11" t="s">
+        <v>237</v>
+      </c>
+      <c r="L11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1822,7 +2127,7 @@
         <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
         <v>192</v>
@@ -1834,64 +2139,100 @@
         <v>186</v>
       </c>
       <c r="H12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I12" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12" t="s">
+        <v>202</v>
+      </c>
+      <c r="L12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G13" t="s">
         <v>186</v>
       </c>
       <c r="H13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I13" t="s">
+        <v>187</v>
+      </c>
+      <c r="J13" t="s">
+        <v>238</v>
+      </c>
+      <c r="K13" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="F14" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G14" t="s">
         <v>186</v>
       </c>
       <c r="H14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="I14" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" t="s">
+        <v>240</v>
+      </c>
+      <c r="K14" t="s">
+        <v>241</v>
+      </c>
+      <c r="L14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1912,12 +2253,24 @@
         <v>186</v>
       </c>
       <c r="H15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I15" t="s">
+        <v>187</v>
+      </c>
+      <c r="J15" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" t="s">
+        <v>242</v>
+      </c>
+      <c r="L15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1938,12 +2291,24 @@
         <v>186</v>
       </c>
       <c r="H16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I16" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1952,50 +2317,74 @@
         <v>185</v>
       </c>
       <c r="D17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" t="s">
+        <v>240</v>
+      </c>
+      <c r="K17" t="s">
+        <v>242</v>
+      </c>
+      <c r="L17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
         <v>188</v>
       </c>
-      <c r="E17" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" t="s">
-        <v>193</v>
-      </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
         <v>186</v>
       </c>
       <c r="H18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" t="s">
+        <v>225</v>
+      </c>
+      <c r="L18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -2004,34 +2393,46 @@
         <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" t="s">
+        <v>231</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" t="s">
+        <v>243</v>
+      </c>
+      <c r="L19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" t="s">
         <v>188</v>
       </c>
-      <c r="F19" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" t="s">
-        <v>191</v>
-      </c>
       <c r="E20" t="s">
         <v>192</v>
       </c>
@@ -2042,12 +2443,24 @@
         <v>186</v>
       </c>
       <c r="H20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -2068,126 +2481,186 @@
         <v>186</v>
       </c>
       <c r="H21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>244</v>
+      </c>
+      <c r="K21" t="s">
+        <v>242</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>186</v>
+      </c>
+      <c r="H22" t="s">
+        <v>220</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" t="s">
+        <v>245</v>
+      </c>
+      <c r="L22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>189</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>188</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>188</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F24" t="s">
         <v>189</v>
       </c>
-      <c r="G22" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H24" t="s">
+        <v>247</v>
+      </c>
+      <c r="I24" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="J24" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
         <v>193</v>
       </c>
-      <c r="E23" t="s">
-        <v>192</v>
-      </c>
-      <c r="F23" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" t="s">
-        <v>186</v>
-      </c>
-      <c r="H23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E24" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" t="s">
-        <v>185</v>
-      </c>
-      <c r="G24" t="s">
-        <v>186</v>
-      </c>
-      <c r="H24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>189</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" t="s">
+        <v>220</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" t="s">
         <v>188</v>
       </c>
-      <c r="E25" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" t="s">
-        <v>193</v>
-      </c>
       <c r="E26" t="s">
         <v>192</v>
       </c>
@@ -2198,12 +2671,24 @@
         <v>186</v>
       </c>
       <c r="H26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -2212,10 +2697,10 @@
         <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>185</v>
@@ -2224,12 +2709,24 @@
         <v>186</v>
       </c>
       <c r="H27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="I27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -2250,12 +2747,24 @@
         <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I28" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>242</v>
+      </c>
+      <c r="L28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -2264,10 +2773,10 @@
         <v>185</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F29" t="s">
         <v>185</v>
@@ -2276,38 +2785,62 @@
         <v>186</v>
       </c>
       <c r="H29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="I29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
         <v>188</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G30" t="s">
         <v>186</v>
       </c>
       <c r="H30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="I30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -2328,168 +2861,252 @@
         <v>186</v>
       </c>
       <c r="H31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I31" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" t="s">
+        <v>220</v>
+      </c>
+      <c r="I32" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" t="s">
+        <v>202</v>
+      </c>
+      <c r="K32" t="s">
+        <v>227</v>
+      </c>
+      <c r="L32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" t="s">
+        <v>220</v>
+      </c>
+      <c r="I33" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" t="s">
+        <v>202</v>
+      </c>
+      <c r="K33" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J34" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" t="s">
+        <v>225</v>
+      </c>
+      <c r="L34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" t="s">
+        <v>207</v>
+      </c>
+      <c r="H35" t="s">
+        <v>220</v>
+      </c>
+      <c r="I35" t="s">
+        <v>187</v>
+      </c>
+      <c r="J35" t="s">
+        <v>202</v>
+      </c>
+      <c r="K35" t="s">
+        <v>202</v>
+      </c>
+      <c r="L35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" t="s">
+        <v>220</v>
+      </c>
+      <c r="I36" t="s">
+        <v>187</v>
+      </c>
+      <c r="J36" t="s">
+        <v>202</v>
+      </c>
+      <c r="K36" t="s">
+        <v>233</v>
+      </c>
+      <c r="L36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37" t="s">
+        <v>239</v>
+      </c>
+      <c r="I37" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" t="s">
+        <v>202</v>
+      </c>
+      <c r="K37" t="s">
+        <v>250</v>
+      </c>
+      <c r="L37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" t="s">
-        <v>193</v>
-      </c>
-      <c r="E32" t="s">
-        <v>192</v>
-      </c>
-      <c r="F32" t="s">
-        <v>185</v>
-      </c>
-      <c r="G32" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33" t="s">
-        <v>193</v>
-      </c>
-      <c r="E33" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" t="s">
-        <v>186</v>
-      </c>
-      <c r="H33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>185</v>
-      </c>
-      <c r="D34" t="s">
-        <v>193</v>
-      </c>
-      <c r="E34" t="s">
-        <v>192</v>
-      </c>
-      <c r="F34" t="s">
-        <v>185</v>
-      </c>
-      <c r="G34" t="s">
-        <v>186</v>
-      </c>
-      <c r="H34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" t="s">
-        <v>196</v>
-      </c>
-      <c r="E35" t="s">
-        <v>196</v>
-      </c>
-      <c r="F35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G36" t="s">
-        <v>186</v>
-      </c>
-      <c r="H36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" t="s">
-        <v>193</v>
-      </c>
-      <c r="E37" t="s">
-        <v>192</v>
-      </c>
-      <c r="F37" t="s">
-        <v>185</v>
-      </c>
-      <c r="G37" t="s">
-        <v>186</v>
-      </c>
-      <c r="H37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -2510,12 +3127,24 @@
         <v>186</v>
       </c>
       <c r="H38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="I38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J38" t="s">
+        <v>202</v>
+      </c>
+      <c r="K38" t="s">
+        <v>242</v>
+      </c>
+      <c r="L38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -2524,7 +3153,7 @@
         <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E39" t="s">
         <v>192</v>
@@ -2536,12 +3165,24 @@
         <v>186</v>
       </c>
       <c r="H39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I39" t="s">
+        <v>187</v>
+      </c>
+      <c r="J39" t="s">
+        <v>244</v>
+      </c>
+      <c r="K39" t="s">
+        <v>242</v>
+      </c>
+      <c r="L39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -2550,7 +3191,7 @@
         <v>185</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E40" t="s">
         <v>192</v>
@@ -2562,12 +3203,24 @@
         <v>186</v>
       </c>
       <c r="H40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I40" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40" t="s">
+        <v>202</v>
+      </c>
+      <c r="K40" t="s">
+        <v>202</v>
+      </c>
+      <c r="L40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -2588,10 +3241,22 @@
         <v>186</v>
       </c>
       <c r="H41" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I41" t="s">
+        <v>187</v>
+      </c>
+      <c r="J41" t="s">
+        <v>202</v>
+      </c>
+      <c r="K41" t="s">
+        <v>202</v>
+      </c>
+      <c r="L41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2614,12 +3279,24 @@
         <v>186</v>
       </c>
       <c r="H42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I42" t="s">
+        <v>187</v>
+      </c>
+      <c r="J42" t="s">
+        <v>202</v>
+      </c>
+      <c r="K42" t="s">
+        <v>202</v>
+      </c>
+      <c r="L42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -2628,10 +3305,10 @@
         <v>185</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
         <v>185</v>
@@ -2640,12 +3317,24 @@
         <v>186</v>
       </c>
       <c r="H43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I43" t="s">
+        <v>187</v>
+      </c>
+      <c r="J43" t="s">
+        <v>240</v>
+      </c>
+      <c r="K43" t="s">
+        <v>229</v>
+      </c>
+      <c r="L43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -2654,10 +3343,10 @@
         <v>185</v>
       </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F44" t="s">
         <v>185</v>
@@ -2666,12 +3355,24 @@
         <v>186</v>
       </c>
       <c r="H44" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="I44" t="s">
+        <v>187</v>
+      </c>
+      <c r="J44" t="s">
+        <v>202</v>
+      </c>
+      <c r="K44" t="s">
+        <v>233</v>
+      </c>
+      <c r="L44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -2692,12 +3393,24 @@
         <v>186</v>
       </c>
       <c r="H45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I45" t="s">
+        <v>187</v>
+      </c>
+      <c r="J45" t="s">
+        <v>202</v>
+      </c>
+      <c r="K45" t="s">
+        <v>229</v>
+      </c>
+      <c r="L45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -2706,10 +3419,10 @@
         <v>185</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F46" t="s">
         <v>185</v>
@@ -2718,12 +3431,24 @@
         <v>186</v>
       </c>
       <c r="H46" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I46" t="s">
+        <v>187</v>
+      </c>
+      <c r="J46" t="s">
+        <v>240</v>
+      </c>
+      <c r="K46" t="s">
+        <v>242</v>
+      </c>
+      <c r="L46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -2744,12 +3469,24 @@
         <v>186</v>
       </c>
       <c r="H47" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I47" t="s">
+        <v>187</v>
+      </c>
+      <c r="J47" t="s">
+        <v>232</v>
+      </c>
+      <c r="K47" t="s">
+        <v>233</v>
+      </c>
+      <c r="L47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -2758,10 +3495,10 @@
         <v>185</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E48" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="F48" t="s">
         <v>185</v>
@@ -2770,12 +3507,24 @@
         <v>186</v>
       </c>
       <c r="H48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I48" t="s">
+        <v>187</v>
+      </c>
+      <c r="J48" t="s">
+        <v>244</v>
+      </c>
+      <c r="K48" t="s">
+        <v>202</v>
+      </c>
+      <c r="L48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -2784,138 +3533,198 @@
         <v>185</v>
       </c>
       <c r="D49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" t="s">
+        <v>185</v>
+      </c>
+      <c r="G49" t="s">
+        <v>186</v>
+      </c>
+      <c r="H49" t="s">
+        <v>220</v>
+      </c>
+      <c r="I49" t="s">
+        <v>187</v>
+      </c>
+      <c r="J49" t="s">
+        <v>202</v>
+      </c>
+      <c r="K49" t="s">
+        <v>202</v>
+      </c>
+      <c r="L49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" t="s">
+        <v>186</v>
+      </c>
+      <c r="H50" t="s">
+        <v>220</v>
+      </c>
+      <c r="I50" t="s">
+        <v>187</v>
+      </c>
+      <c r="J50" t="s">
+        <v>223</v>
+      </c>
+      <c r="K50" t="s">
+        <v>233</v>
+      </c>
+      <c r="L50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" t="s">
+        <v>185</v>
+      </c>
+      <c r="G51" t="s">
+        <v>186</v>
+      </c>
+      <c r="H51" t="s">
+        <v>252</v>
+      </c>
+      <c r="I51" t="s">
+        <v>187</v>
+      </c>
+      <c r="J51" t="s">
+        <v>222</v>
+      </c>
+      <c r="K51" t="s">
+        <v>243</v>
+      </c>
+      <c r="L51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F52" t="s">
+        <v>189</v>
+      </c>
+      <c r="G52" t="s">
+        <v>186</v>
+      </c>
+      <c r="H52" t="s">
+        <v>252</v>
+      </c>
+      <c r="I52" t="s">
+        <v>190</v>
+      </c>
+      <c r="J52" t="s">
+        <v>225</v>
+      </c>
+      <c r="K52" t="s">
+        <v>225</v>
+      </c>
+      <c r="L52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" t="s">
         <v>191</v>
       </c>
-      <c r="E49" t="s">
-        <v>192</v>
-      </c>
-      <c r="F49" t="s">
-        <v>185</v>
-      </c>
-      <c r="G49" t="s">
-        <v>186</v>
-      </c>
-      <c r="H49" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>185</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E53" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" t="s">
+        <v>186</v>
+      </c>
+      <c r="H53" t="s">
+        <v>226</v>
+      </c>
+      <c r="I53" t="s">
+        <v>187</v>
+      </c>
+      <c r="J53" t="s">
+        <v>202</v>
+      </c>
+      <c r="K53" t="s">
+        <v>202</v>
+      </c>
+      <c r="L53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" t="s">
         <v>188</v>
       </c>
-      <c r="E50" t="s">
-        <v>192</v>
-      </c>
-      <c r="F50" t="s">
-        <v>185</v>
-      </c>
-      <c r="G50" t="s">
-        <v>186</v>
-      </c>
-      <c r="H50" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
-        <v>189</v>
-      </c>
-      <c r="D51" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" t="s">
-        <v>188</v>
-      </c>
-      <c r="F51" t="s">
-        <v>189</v>
-      </c>
-      <c r="G51" t="s">
-        <v>186</v>
-      </c>
-      <c r="H51" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>185</v>
-      </c>
-      <c r="D52" t="s">
-        <v>200</v>
-      </c>
-      <c r="E52" t="s">
-        <v>200</v>
-      </c>
-      <c r="F52" t="s">
-        <v>185</v>
-      </c>
-      <c r="G52" t="s">
-        <v>186</v>
-      </c>
-      <c r="H52" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>185</v>
-      </c>
-      <c r="D53" t="s">
-        <v>193</v>
-      </c>
-      <c r="E53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F53" t="s">
-        <v>185</v>
-      </c>
-      <c r="G53" t="s">
-        <v>186</v>
-      </c>
-      <c r="H53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>185</v>
-      </c>
-      <c r="D54" t="s">
-        <v>192</v>
-      </c>
       <c r="E54" t="s">
         <v>192</v>
       </c>
@@ -2926,12 +3735,24 @@
         <v>186</v>
       </c>
       <c r="H54" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I54" t="s">
+        <v>187</v>
+      </c>
+      <c r="J54" t="s">
+        <v>202</v>
+      </c>
+      <c r="K54" t="s">
+        <v>202</v>
+      </c>
+      <c r="L54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -2940,7 +3761,7 @@
         <v>185</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E55" t="s">
         <v>192</v>
@@ -2952,12 +3773,24 @@
         <v>186</v>
       </c>
       <c r="H55" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="I55" t="s">
+        <v>187</v>
+      </c>
+      <c r="J55" t="s">
+        <v>202</v>
+      </c>
+      <c r="K55" t="s">
+        <v>202</v>
+      </c>
+      <c r="L55" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -2978,38 +3811,62 @@
         <v>186</v>
       </c>
       <c r="H56" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="I56" t="s">
+        <v>187</v>
+      </c>
+      <c r="J56" t="s">
+        <v>223</v>
+      </c>
+      <c r="K56" t="s">
+        <v>202</v>
+      </c>
+      <c r="L56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D57" t="s">
         <v>188</v>
       </c>
       <c r="E57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F57" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G57" t="s">
         <v>186</v>
       </c>
       <c r="H57" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="I57" t="s">
+        <v>190</v>
+      </c>
+      <c r="J57" t="s">
+        <v>225</v>
+      </c>
+      <c r="K57" t="s">
+        <v>225</v>
+      </c>
+      <c r="L57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -3018,37 +3875,49 @@
         <v>185</v>
       </c>
       <c r="D58" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" t="s">
+        <v>185</v>
+      </c>
+      <c r="G58" t="s">
+        <v>186</v>
+      </c>
+      <c r="H58" t="s">
+        <v>220</v>
+      </c>
+      <c r="I58" t="s">
+        <v>187</v>
+      </c>
+      <c r="J58" t="s">
+        <v>202</v>
+      </c>
+      <c r="K58" t="s">
+        <v>221</v>
+      </c>
+      <c r="L58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" t="s">
         <v>0</v>
       </c>
-      <c r="F58" t="s">
-        <v>185</v>
-      </c>
-      <c r="G58" t="s">
-        <v>186</v>
-      </c>
-      <c r="H58" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>185</v>
-      </c>
-      <c r="D59" t="s">
-        <v>196</v>
-      </c>
-      <c r="E59" t="s">
-        <v>196</v>
-      </c>
       <c r="F59" t="s">
         <v>185</v>
       </c>
@@ -3056,12 +3925,24 @@
         <v>186</v>
       </c>
       <c r="H59" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I59" t="s">
+        <v>187</v>
+      </c>
+      <c r="J59" t="s">
+        <v>244</v>
+      </c>
+      <c r="K59" t="s">
+        <v>202</v>
+      </c>
+      <c r="L59" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -3082,12 +3963,24 @@
         <v>186</v>
       </c>
       <c r="H60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J60" t="s">
+        <v>240</v>
+      </c>
+      <c r="K60" t="s">
+        <v>242</v>
+      </c>
+      <c r="L60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -3096,10 +3989,10 @@
         <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E61" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F61" t="s">
         <v>185</v>
@@ -3108,12 +4001,24 @@
         <v>186</v>
       </c>
       <c r="H61" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I61" t="s">
+        <v>187</v>
+      </c>
+      <c r="J61" t="s">
+        <v>202</v>
+      </c>
+      <c r="K61" t="s">
+        <v>202</v>
+      </c>
+      <c r="L61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -3134,38 +4039,62 @@
         <v>186</v>
       </c>
       <c r="H62" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I62" t="s">
+        <v>187</v>
+      </c>
+      <c r="J62" t="s">
+        <v>202</v>
+      </c>
+      <c r="K62" t="s">
+        <v>242</v>
+      </c>
+      <c r="L62" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D63" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E63" t="s">
         <v>192</v>
       </c>
       <c r="F63" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G63" t="s">
         <v>186</v>
       </c>
       <c r="H63" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I63" t="s">
+        <v>190</v>
+      </c>
+      <c r="J63" t="s">
+        <v>225</v>
+      </c>
+      <c r="K63" t="s">
+        <v>225</v>
+      </c>
+      <c r="L63" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -3186,18 +4115,30 @@
         <v>186</v>
       </c>
       <c r="H64" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I64" t="s">
+        <v>187</v>
+      </c>
+      <c r="J64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K64" t="s">
+        <v>227</v>
+      </c>
+      <c r="L64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D65" t="s">
         <v>188</v>
@@ -3206,18 +4147,30 @@
         <v>192</v>
       </c>
       <c r="F65" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G65" t="s">
         <v>186</v>
       </c>
       <c r="H65" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I65" t="s">
+        <v>187</v>
+      </c>
+      <c r="J65" t="s">
+        <v>202</v>
+      </c>
+      <c r="K65" t="s">
+        <v>202</v>
+      </c>
+      <c r="L65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -3238,12 +4191,24 @@
         <v>186</v>
       </c>
       <c r="H66" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I66" t="s">
+        <v>187</v>
+      </c>
+      <c r="J66" t="s">
+        <v>202</v>
+      </c>
+      <c r="K66" t="s">
+        <v>242</v>
+      </c>
+      <c r="L66" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -3252,86 +4217,122 @@
         <v>185</v>
       </c>
       <c r="D67" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" t="s">
+        <v>199</v>
+      </c>
+      <c r="F67" t="s">
+        <v>185</v>
+      </c>
+      <c r="G67" t="s">
+        <v>186</v>
+      </c>
+      <c r="H67" t="s">
+        <v>231</v>
+      </c>
+      <c r="I67" t="s">
+        <v>187</v>
+      </c>
+      <c r="J67" t="s">
+        <v>202</v>
+      </c>
+      <c r="K67" t="s">
+        <v>243</v>
+      </c>
+      <c r="L67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" t="s">
+        <v>214</v>
+      </c>
+      <c r="F68" t="s">
+        <v>185</v>
+      </c>
+      <c r="G68" t="s">
+        <v>186</v>
+      </c>
+      <c r="H68" t="s">
+        <v>220</v>
+      </c>
+      <c r="I68" t="s">
+        <v>187</v>
+      </c>
+      <c r="J68" t="s">
+        <v>248</v>
+      </c>
+      <c r="K68" t="s">
+        <v>245</v>
+      </c>
+      <c r="L68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" t="s">
+        <v>196</v>
+      </c>
+      <c r="E69" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69" t="s">
+        <v>186</v>
+      </c>
+      <c r="H69" t="s">
+        <v>254</v>
+      </c>
+      <c r="I69" t="s">
+        <v>187</v>
+      </c>
+      <c r="J69" t="s">
+        <v>255</v>
+      </c>
+      <c r="K69" t="s">
+        <v>256</v>
+      </c>
+      <c r="L69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" t="s">
         <v>193</v>
       </c>
-      <c r="E67" t="s">
-        <v>192</v>
-      </c>
-      <c r="F67" t="s">
-        <v>185</v>
-      </c>
-      <c r="G67" t="s">
-        <v>186</v>
-      </c>
-      <c r="H67" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" t="s">
-        <v>191</v>
-      </c>
-      <c r="E68" t="s">
-        <v>192</v>
-      </c>
-      <c r="F68" t="s">
-        <v>185</v>
-      </c>
-      <c r="G68" t="s">
-        <v>186</v>
-      </c>
-      <c r="H68" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>185</v>
-      </c>
-      <c r="D69" t="s">
-        <v>195</v>
-      </c>
-      <c r="E69" t="s">
-        <v>195</v>
-      </c>
-      <c r="F69" t="s">
-        <v>185</v>
-      </c>
-      <c r="G69" t="s">
-        <v>186</v>
-      </c>
-      <c r="H69" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>185</v>
-      </c>
-      <c r="D70" t="s">
-        <v>192</v>
-      </c>
       <c r="E70" t="s">
         <v>192</v>
       </c>
@@ -3342,12 +4343,24 @@
         <v>186</v>
       </c>
       <c r="H70" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I70" t="s">
+        <v>187</v>
+      </c>
+      <c r="J70" t="s">
+        <v>202</v>
+      </c>
+      <c r="K70" t="s">
+        <v>257</v>
+      </c>
+      <c r="L70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -3368,12 +4381,24 @@
         <v>186</v>
       </c>
       <c r="H71" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="I71" t="s">
+        <v>187</v>
+      </c>
+      <c r="J71" t="s">
+        <v>202</v>
+      </c>
+      <c r="K71" t="s">
+        <v>202</v>
+      </c>
+      <c r="L71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -3382,10 +4407,10 @@
         <v>185</v>
       </c>
       <c r="D72" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F72" t="s">
         <v>185</v>
@@ -3394,12 +4419,24 @@
         <v>186</v>
       </c>
       <c r="H72" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="I72" t="s">
+        <v>187</v>
+      </c>
+      <c r="J72" t="s">
+        <v>249</v>
+      </c>
+      <c r="K72" t="s">
+        <v>227</v>
+      </c>
+      <c r="L72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -3420,12 +4457,24 @@
         <v>186</v>
       </c>
       <c r="H73" t="s">
+        <v>252</v>
+      </c>
+      <c r="I73" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J73" t="s">
+        <v>225</v>
+      </c>
+      <c r="K73" t="s">
+        <v>225</v>
+      </c>
+      <c r="L73" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -3446,38 +4495,62 @@
         <v>186</v>
       </c>
       <c r="H74" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I74" t="s">
+        <v>187</v>
+      </c>
+      <c r="J74" t="s">
+        <v>232</v>
+      </c>
+      <c r="K74" t="s">
+        <v>233</v>
+      </c>
+      <c r="L74" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E75" t="s">
         <v>188</v>
       </c>
       <c r="F75" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G75" t="s">
         <v>186</v>
       </c>
       <c r="H75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="I75" t="s">
+        <v>190</v>
+      </c>
+      <c r="J75" t="s">
+        <v>225</v>
+      </c>
+      <c r="K75" t="s">
+        <v>225</v>
+      </c>
+      <c r="L75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -3498,38 +4571,62 @@
         <v>186</v>
       </c>
       <c r="H76" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I76" t="s">
+        <v>187</v>
+      </c>
+      <c r="J76" t="s">
+        <v>223</v>
+      </c>
+      <c r="K76" t="s">
+        <v>202</v>
+      </c>
+      <c r="L76" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E77" t="s">
         <v>192</v>
       </c>
       <c r="F77" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G77" t="s">
         <v>186</v>
       </c>
       <c r="H77" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I77" t="s">
+        <v>190</v>
+      </c>
+      <c r="J77" t="s">
+        <v>225</v>
+      </c>
+      <c r="K77" t="s">
+        <v>225</v>
+      </c>
+      <c r="L77" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -3538,10 +4635,10 @@
         <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E78" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F78" t="s">
         <v>185</v>
@@ -3550,38 +4647,62 @@
         <v>186</v>
       </c>
       <c r="H78" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="I78" t="s">
+        <v>187</v>
+      </c>
+      <c r="J78" t="s">
+        <v>202</v>
+      </c>
+      <c r="K78" t="s">
+        <v>243</v>
+      </c>
+      <c r="L78" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G79" t="s">
         <v>186</v>
       </c>
       <c r="H79" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="I79" t="s">
+        <v>187</v>
+      </c>
+      <c r="J79" t="s">
+        <v>202</v>
+      </c>
+      <c r="K79" t="s">
+        <v>243</v>
+      </c>
+      <c r="L79" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -3602,12 +4723,24 @@
         <v>186</v>
       </c>
       <c r="H80" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I80" t="s">
+        <v>187</v>
+      </c>
+      <c r="J80" t="s">
+        <v>202</v>
+      </c>
+      <c r="K80" t="s">
+        <v>257</v>
+      </c>
+      <c r="L80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -3628,12 +4761,24 @@
         <v>186</v>
       </c>
       <c r="H81" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I81" t="s">
+        <v>187</v>
+      </c>
+      <c r="J81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K81" t="s">
+        <v>257</v>
+      </c>
+      <c r="L81" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -3642,10 +4787,10 @@
         <v>185</v>
       </c>
       <c r="D82" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E82" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F82" t="s">
         <v>185</v>
@@ -3654,12 +4799,24 @@
         <v>186</v>
       </c>
       <c r="H82" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="I82" t="s">
+        <v>187</v>
+      </c>
+      <c r="J82" t="s">
+        <v>202</v>
+      </c>
+      <c r="K82" t="s">
+        <v>245</v>
+      </c>
+      <c r="L82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -3680,38 +4837,62 @@
         <v>186</v>
       </c>
       <c r="H83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I83" t="s">
+        <v>187</v>
+      </c>
+      <c r="J83" t="s">
+        <v>202</v>
+      </c>
+      <c r="K83" t="s">
+        <v>202</v>
+      </c>
+      <c r="L83" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D84" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E84" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F84" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G84" t="s">
         <v>186</v>
       </c>
       <c r="H84" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I84" t="s">
+        <v>190</v>
+      </c>
+      <c r="J84" t="s">
+        <v>225</v>
+      </c>
+      <c r="K84" t="s">
+        <v>225</v>
+      </c>
+      <c r="L84" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -3723,7 +4904,7 @@
         <v>188</v>
       </c>
       <c r="E85" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F85" t="s">
         <v>189</v>
@@ -3732,12 +4913,24 @@
         <v>186</v>
       </c>
       <c r="H85" t="s">
+        <v>252</v>
+      </c>
+      <c r="I85" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J85" t="s">
+        <v>225</v>
+      </c>
+      <c r="K85" t="s">
+        <v>225</v>
+      </c>
+      <c r="L85" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -3746,10 +4939,10 @@
         <v>185</v>
       </c>
       <c r="D86" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E86" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F86" t="s">
         <v>185</v>
@@ -3758,38 +4951,62 @@
         <v>186</v>
       </c>
       <c r="H86" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I86" t="s">
+        <v>187</v>
+      </c>
+      <c r="J86" t="s">
+        <v>202</v>
+      </c>
+      <c r="K86" t="s">
+        <v>202</v>
+      </c>
+      <c r="L86" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
         <v>188</v>
       </c>
       <c r="E87" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F87" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G87" t="s">
         <v>186</v>
       </c>
       <c r="H87" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="I87" t="s">
+        <v>190</v>
+      </c>
+      <c r="J87" t="s">
+        <v>225</v>
+      </c>
+      <c r="K87" t="s">
+        <v>225</v>
+      </c>
+      <c r="L87" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -3798,7 +5015,7 @@
         <v>185</v>
       </c>
       <c r="D88" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E88" t="s">
         <v>192</v>
@@ -3810,12 +5027,24 @@
         <v>186</v>
       </c>
       <c r="H88" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I88" t="s">
+        <v>187</v>
+      </c>
+      <c r="J88" t="s">
+        <v>202</v>
+      </c>
+      <c r="K88" t="s">
+        <v>242</v>
+      </c>
+      <c r="L88" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -3836,12 +5065,24 @@
         <v>186</v>
       </c>
       <c r="H89" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I89" t="s">
+        <v>187</v>
+      </c>
+      <c r="J89" t="s">
+        <v>253</v>
+      </c>
+      <c r="K89" t="s">
+        <v>258</v>
+      </c>
+      <c r="L89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -3862,12 +5103,24 @@
         <v>186</v>
       </c>
       <c r="H90" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I90" t="s">
+        <v>187</v>
+      </c>
+      <c r="J90" t="s">
+        <v>259</v>
+      </c>
+      <c r="K90" t="s">
+        <v>202</v>
+      </c>
+      <c r="L90" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -3876,10 +5129,10 @@
         <v>185</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E91" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F91" t="s">
         <v>185</v>
@@ -3888,12 +5141,24 @@
         <v>186</v>
       </c>
       <c r="H91" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I91" t="s">
+        <v>187</v>
+      </c>
+      <c r="J91" t="s">
+        <v>202</v>
+      </c>
+      <c r="K91" t="s">
+        <v>221</v>
+      </c>
+      <c r="L91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -3902,10 +5167,10 @@
         <v>185</v>
       </c>
       <c r="D92" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E92" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="F92" t="s">
         <v>185</v>
@@ -3914,12 +5179,24 @@
         <v>186</v>
       </c>
       <c r="H92" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I92" t="s">
+        <v>187</v>
+      </c>
+      <c r="J92" t="s">
+        <v>244</v>
+      </c>
+      <c r="K92" t="s">
+        <v>229</v>
+      </c>
+      <c r="L92" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -3928,10 +5205,10 @@
         <v>185</v>
       </c>
       <c r="D93" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E93" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F93" t="s">
         <v>185</v>
@@ -3940,12 +5217,24 @@
         <v>186</v>
       </c>
       <c r="H93" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I93" t="s">
+        <v>187</v>
+      </c>
+      <c r="J93" t="s">
+        <v>202</v>
+      </c>
+      <c r="K93" t="s">
+        <v>202</v>
+      </c>
+      <c r="L93" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -3954,10 +5243,10 @@
         <v>185</v>
       </c>
       <c r="D94" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E94" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F94" t="s">
         <v>185</v>
@@ -3966,10 +5255,22 @@
         <v>186</v>
       </c>
       <c r="H94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="I94" t="s">
+        <v>187</v>
+      </c>
+      <c r="J94" t="s">
+        <v>202</v>
+      </c>
+      <c r="K94" t="s">
+        <v>202</v>
+      </c>
+      <c r="L94" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -3992,12 +5293,24 @@
         <v>186</v>
       </c>
       <c r="H95" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I95" t="s">
+        <v>187</v>
+      </c>
+      <c r="J95" t="s">
+        <v>202</v>
+      </c>
+      <c r="K95" t="s">
+        <v>233</v>
+      </c>
+      <c r="L95" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -4006,10 +5319,10 @@
         <v>185</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E96" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
         <v>185</v>
@@ -4018,12 +5331,24 @@
         <v>186</v>
       </c>
       <c r="H96" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I96" t="s">
+        <v>187</v>
+      </c>
+      <c r="J96" t="s">
+        <v>236</v>
+      </c>
+      <c r="K96" t="s">
+        <v>237</v>
+      </c>
+      <c r="L96" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -4044,12 +5369,24 @@
         <v>186</v>
       </c>
       <c r="H97" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I97" t="s">
+        <v>187</v>
+      </c>
+      <c r="J97" t="s">
+        <v>202</v>
+      </c>
+      <c r="K97" t="s">
+        <v>233</v>
+      </c>
+      <c r="L97" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -4058,167 +5395,239 @@
         <v>185</v>
       </c>
       <c r="D98" t="s">
+        <v>195</v>
+      </c>
+      <c r="E98" t="s">
+        <v>195</v>
+      </c>
+      <c r="F98" t="s">
+        <v>185</v>
+      </c>
+      <c r="G98" t="s">
+        <v>186</v>
+      </c>
+      <c r="H98" t="s">
+        <v>220</v>
+      </c>
+      <c r="I98" t="s">
+        <v>187</v>
+      </c>
+      <c r="J98" t="s">
+        <v>202</v>
+      </c>
+      <c r="K98" t="s">
+        <v>227</v>
+      </c>
+      <c r="L98" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>185</v>
+      </c>
+      <c r="D99" t="s">
         <v>193</v>
       </c>
-      <c r="E98" t="s">
-        <v>192</v>
-      </c>
-      <c r="F98" t="s">
-        <v>185</v>
-      </c>
-      <c r="G98" t="s">
-        <v>186</v>
-      </c>
-      <c r="H98" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>185</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
+        <v>185</v>
+      </c>
+      <c r="G99" t="s">
+        <v>186</v>
+      </c>
+      <c r="H99" t="s">
+        <v>220</v>
+      </c>
+      <c r="I99" t="s">
+        <v>187</v>
+      </c>
+      <c r="J99" t="s">
+        <v>202</v>
+      </c>
+      <c r="K99" t="s">
+        <v>202</v>
+      </c>
+      <c r="L99" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>185</v>
+      </c>
+      <c r="D100" t="s">
+        <v>191</v>
+      </c>
+      <c r="E100" t="s">
         <v>188</v>
       </c>
-      <c r="E99" t="s">
-        <v>192</v>
-      </c>
-      <c r="F99" t="s">
-        <v>185</v>
-      </c>
-      <c r="G99" t="s">
-        <v>186</v>
-      </c>
-      <c r="H99" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
-        <v>185</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
+        <v>185</v>
+      </c>
+      <c r="G100" t="s">
+        <v>186</v>
+      </c>
+      <c r="H100" t="s">
+        <v>220</v>
+      </c>
+      <c r="I100" t="s">
+        <v>187</v>
+      </c>
+      <c r="J100" t="s">
+        <v>248</v>
+      </c>
+      <c r="K100" t="s">
+        <v>202</v>
+      </c>
+      <c r="L100" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" t="s">
         <v>193</v>
       </c>
-      <c r="E100" t="s">
-        <v>192</v>
-      </c>
-      <c r="F100" t="s">
-        <v>185</v>
-      </c>
-      <c r="G100" t="s">
-        <v>186</v>
-      </c>
-      <c r="H100" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>185</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
+        <v>185</v>
+      </c>
+      <c r="G101" t="s">
+        <v>186</v>
+      </c>
+      <c r="H101" t="s">
+        <v>252</v>
+      </c>
+      <c r="I101" t="s">
+        <v>187</v>
+      </c>
+      <c r="J101" t="s">
+        <v>261</v>
+      </c>
+      <c r="K101" t="s">
+        <v>250</v>
+      </c>
+      <c r="L101" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>58</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" t="s">
+        <v>188</v>
+      </c>
+      <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
+        <v>185</v>
+      </c>
+      <c r="G102" t="s">
+        <v>186</v>
+      </c>
+      <c r="H102" t="s">
+        <v>220</v>
+      </c>
+      <c r="I102" t="s">
+        <v>187</v>
+      </c>
+      <c r="J102" t="s">
+        <v>202</v>
+      </c>
+      <c r="K102" t="s">
+        <v>242</v>
+      </c>
+      <c r="L102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" t="s">
+        <v>198</v>
+      </c>
+      <c r="E103" t="s">
+        <v>199</v>
+      </c>
+      <c r="F103" t="s">
+        <v>185</v>
+      </c>
+      <c r="G103" t="s">
+        <v>186</v>
+      </c>
+      <c r="H103" t="s">
+        <v>252</v>
+      </c>
+      <c r="I103" t="s">
+        <v>187</v>
+      </c>
+      <c r="J103" t="s">
+        <v>235</v>
+      </c>
+      <c r="K103" t="s">
+        <v>202</v>
+      </c>
+      <c r="L103" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>185</v>
+      </c>
+      <c r="D104" t="s">
         <v>195</v>
       </c>
-      <c r="E101" t="s">
-        <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>185</v>
-      </c>
-      <c r="G101" t="s">
-        <v>186</v>
-      </c>
-      <c r="H101" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
-        <v>185</v>
-      </c>
-      <c r="D102" t="s">
-        <v>206</v>
-      </c>
-      <c r="E102" t="s">
-        <v>206</v>
-      </c>
-      <c r="F102" t="s">
-        <v>185</v>
-      </c>
-      <c r="G102" t="s">
-        <v>207</v>
-      </c>
-      <c r="H102" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
-        <v>185</v>
-      </c>
-      <c r="D103" t="s">
-        <v>195</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="E104" t="s">
         <v>0</v>
       </c>
-      <c r="F103" t="s">
-        <v>185</v>
-      </c>
-      <c r="G103" t="s">
-        <v>186</v>
-      </c>
-      <c r="H103" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" t="s">
-        <v>185</v>
-      </c>
-      <c r="D104" t="s">
-        <v>193</v>
-      </c>
-      <c r="E104" t="s">
-        <v>192</v>
-      </c>
       <c r="F104" t="s">
         <v>185</v>
       </c>
@@ -4226,12 +5635,24 @@
         <v>186</v>
       </c>
       <c r="H104" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I104" t="s">
+        <v>187</v>
+      </c>
+      <c r="J104" t="s">
+        <v>240</v>
+      </c>
+      <c r="K104" t="s">
+        <v>229</v>
+      </c>
+      <c r="L104" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -4240,10 +5661,10 @@
         <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E105" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
         <v>185</v>
@@ -4252,12 +5673,24 @@
         <v>186</v>
       </c>
       <c r="H105" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="I105" t="s">
+        <v>187</v>
+      </c>
+      <c r="J105" t="s">
+        <v>255</v>
+      </c>
+      <c r="K105" t="s">
+        <v>256</v>
+      </c>
+      <c r="L105" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -4266,10 +5699,10 @@
         <v>185</v>
       </c>
       <c r="D106" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E106" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F106" t="s">
         <v>185</v>
@@ -4278,12 +5711,24 @@
         <v>186</v>
       </c>
       <c r="H106" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="I106" t="s">
+        <v>187</v>
+      </c>
+      <c r="J106" t="s">
+        <v>238</v>
+      </c>
+      <c r="K106" t="s">
+        <v>237</v>
+      </c>
+      <c r="L106" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -4304,12 +5749,24 @@
         <v>186</v>
       </c>
       <c r="H107" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I107" t="s">
+        <v>187</v>
+      </c>
+      <c r="J107" t="s">
+        <v>202</v>
+      </c>
+      <c r="K107" t="s">
+        <v>233</v>
+      </c>
+      <c r="L107" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -4330,12 +5787,24 @@
         <v>186</v>
       </c>
       <c r="H108" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I108" t="s">
+        <v>187</v>
+      </c>
+      <c r="J108" t="s">
+        <v>202</v>
+      </c>
+      <c r="K108" t="s">
+        <v>221</v>
+      </c>
+      <c r="L108" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -4344,7 +5813,7 @@
         <v>185</v>
       </c>
       <c r="D109" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E109" t="s">
         <v>192</v>
@@ -4356,64 +5825,100 @@
         <v>186</v>
       </c>
       <c r="H109" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I109" t="s">
+        <v>187</v>
+      </c>
+      <c r="J109" t="s">
+        <v>202</v>
+      </c>
+      <c r="K109" t="s">
+        <v>202</v>
+      </c>
+      <c r="L109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D110" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E110" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F110" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G110" t="s">
         <v>186</v>
       </c>
       <c r="H110" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="I110" t="s">
+        <v>187</v>
+      </c>
+      <c r="J110" t="s">
+        <v>202</v>
+      </c>
+      <c r="K110" t="s">
+        <v>250</v>
+      </c>
+      <c r="L110" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D111" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E111" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G111" t="s">
         <v>186</v>
       </c>
       <c r="H111" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="I111" t="s">
+        <v>187</v>
+      </c>
+      <c r="J111" t="s">
+        <v>263</v>
+      </c>
+      <c r="K111" t="s">
+        <v>264</v>
+      </c>
+      <c r="L111" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -4425,7 +5930,7 @@
         <v>193</v>
       </c>
       <c r="E112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F112" t="s">
         <v>185</v>
@@ -4434,12 +5939,24 @@
         <v>186</v>
       </c>
       <c r="H112" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I112" t="s">
+        <v>187</v>
+      </c>
+      <c r="J112" t="s">
+        <v>202</v>
+      </c>
+      <c r="K112" t="s">
+        <v>202</v>
+      </c>
+      <c r="L112" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -4460,12 +5977,24 @@
         <v>186</v>
       </c>
       <c r="H113" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I113" t="s">
+        <v>187</v>
+      </c>
+      <c r="J113" t="s">
+        <v>232</v>
+      </c>
+      <c r="K113" t="s">
+        <v>233</v>
+      </c>
+      <c r="L113" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -4486,64 +6015,100 @@
         <v>186</v>
       </c>
       <c r="H114" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I114" t="s">
+        <v>187</v>
+      </c>
+      <c r="J114" t="s">
+        <v>223</v>
+      </c>
+      <c r="K114" t="s">
+        <v>221</v>
+      </c>
+      <c r="L114" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D115" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E115" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F115" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G115" t="s">
         <v>186</v>
       </c>
       <c r="H115" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="I115" t="s">
+        <v>190</v>
+      </c>
+      <c r="J115" t="s">
+        <v>225</v>
+      </c>
+      <c r="K115" t="s">
+        <v>225</v>
+      </c>
+      <c r="L115" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D116" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E116" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F116" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G116" t="s">
         <v>186</v>
       </c>
       <c r="H116" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="I116" t="s">
+        <v>190</v>
+      </c>
+      <c r="J116" t="s">
+        <v>225</v>
+      </c>
+      <c r="K116" t="s">
+        <v>225</v>
+      </c>
+      <c r="L116" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -4564,12 +6129,24 @@
         <v>186</v>
       </c>
       <c r="H117" t="s">
+        <v>252</v>
+      </c>
+      <c r="I117" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J117" t="s">
+        <v>225</v>
+      </c>
+      <c r="K117" t="s">
+        <v>225</v>
+      </c>
+      <c r="L117" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -4578,10 +6155,10 @@
         <v>185</v>
       </c>
       <c r="D118" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E118" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F118" t="s">
         <v>185</v>
@@ -4590,12 +6167,24 @@
         <v>186</v>
       </c>
       <c r="H118" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I118" t="s">
+        <v>187</v>
+      </c>
+      <c r="J118" t="s">
+        <v>232</v>
+      </c>
+      <c r="K118" t="s">
+        <v>221</v>
+      </c>
+      <c r="L118" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -4616,38 +6205,62 @@
         <v>186</v>
       </c>
       <c r="H119" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I119" t="s">
+        <v>187</v>
+      </c>
+      <c r="J119" t="s">
+        <v>202</v>
+      </c>
+      <c r="K119" t="s">
+        <v>227</v>
+      </c>
+      <c r="L119" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D120" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="E120" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="F120" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G120" t="s">
         <v>186</v>
       </c>
       <c r="H120" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="I120" t="s">
+        <v>187</v>
+      </c>
+      <c r="J120" t="s">
+        <v>248</v>
+      </c>
+      <c r="K120" t="s">
+        <v>258</v>
+      </c>
+      <c r="L120" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -4656,7 +6269,7 @@
         <v>185</v>
       </c>
       <c r="D121" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E121" t="s">
         <v>192</v>
@@ -4668,12 +6281,24 @@
         <v>186</v>
       </c>
       <c r="H121" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="I121" t="s">
+        <v>187</v>
+      </c>
+      <c r="J121" t="s">
+        <v>232</v>
+      </c>
+      <c r="K121" t="s">
+        <v>242</v>
+      </c>
+      <c r="L121" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -4682,10 +6307,10 @@
         <v>185</v>
       </c>
       <c r="D122" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E122" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F122" t="s">
         <v>185</v>
@@ -4694,12 +6319,24 @@
         <v>186</v>
       </c>
       <c r="H122" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="I122" t="s">
+        <v>187</v>
+      </c>
+      <c r="J122" t="s">
+        <v>249</v>
+      </c>
+      <c r="K122" t="s">
+        <v>256</v>
+      </c>
+      <c r="L122" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -4708,7 +6345,7 @@
         <v>185</v>
       </c>
       <c r="D123" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E123" t="s">
         <v>192</v>
@@ -4720,90 +6357,138 @@
         <v>186</v>
       </c>
       <c r="H123" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I123" t="s">
+        <v>187</v>
+      </c>
+      <c r="J123" t="s">
+        <v>244</v>
+      </c>
+      <c r="K123" t="s">
+        <v>229</v>
+      </c>
+      <c r="L123" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D124" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E124" t="s">
         <v>192</v>
       </c>
       <c r="F124" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G124" t="s">
         <v>186</v>
       </c>
       <c r="H124" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I124" t="s">
+        <v>187</v>
+      </c>
+      <c r="J124" t="s">
+        <v>202</v>
+      </c>
+      <c r="K124" t="s">
+        <v>202</v>
+      </c>
+      <c r="L124" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D125" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E125" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F125" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G125" t="s">
         <v>186</v>
       </c>
       <c r="H125" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I125" t="s">
+        <v>187</v>
+      </c>
+      <c r="J125" t="s">
+        <v>249</v>
+      </c>
+      <c r="K125" t="s">
+        <v>258</v>
+      </c>
+      <c r="L125" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D126" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E126" t="s">
         <v>192</v>
       </c>
       <c r="F126" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G126" t="s">
         <v>186</v>
       </c>
       <c r="H126" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I126" t="s">
+        <v>187</v>
+      </c>
+      <c r="J126" t="s">
+        <v>223</v>
+      </c>
+      <c r="K126" t="s">
+        <v>202</v>
+      </c>
+      <c r="L126" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -4824,350 +6509,518 @@
         <v>186</v>
       </c>
       <c r="H127" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I127" t="s">
+        <v>187</v>
+      </c>
+      <c r="J127" t="s">
+        <v>202</v>
+      </c>
+      <c r="K127" t="s">
+        <v>229</v>
+      </c>
+      <c r="L127" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D128" t="s">
+        <v>188</v>
+      </c>
+      <c r="E128" t="s">
+        <v>192</v>
+      </c>
+      <c r="F128" t="s">
+        <v>189</v>
+      </c>
+      <c r="G128" t="s">
+        <v>186</v>
+      </c>
+      <c r="H128" t="s">
+        <v>224</v>
+      </c>
+      <c r="I128" t="s">
+        <v>190</v>
+      </c>
+      <c r="J128" t="s">
+        <v>225</v>
+      </c>
+      <c r="K128" t="s">
+        <v>225</v>
+      </c>
+      <c r="L128" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>96</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>185</v>
+      </c>
+      <c r="D129" t="s">
+        <v>205</v>
+      </c>
+      <c r="E129" t="s">
+        <v>205</v>
+      </c>
+      <c r="F129" t="s">
+        <v>185</v>
+      </c>
+      <c r="G129" t="s">
+        <v>186</v>
+      </c>
+      <c r="H129" t="s">
+        <v>220</v>
+      </c>
+      <c r="I129" t="s">
+        <v>187</v>
+      </c>
+      <c r="J129" t="s">
+        <v>238</v>
+      </c>
+      <c r="K129" t="s">
+        <v>245</v>
+      </c>
+      <c r="L129" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>144</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130" t="s">
         <v>193</v>
       </c>
-      <c r="E128" t="s">
-        <v>192</v>
-      </c>
-      <c r="F128" t="s">
-        <v>185</v>
-      </c>
-      <c r="G128" t="s">
-        <v>186</v>
-      </c>
-      <c r="H128" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>131</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
-        <v>185</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="E130" t="s">
+        <v>192</v>
+      </c>
+      <c r="F130" t="s">
+        <v>185</v>
+      </c>
+      <c r="G130" t="s">
+        <v>186</v>
+      </c>
+      <c r="H130" t="s">
+        <v>220</v>
+      </c>
+      <c r="I130" t="s">
+        <v>187</v>
+      </c>
+      <c r="J130" t="s">
+        <v>202</v>
+      </c>
+      <c r="K130" t="s">
+        <v>202</v>
+      </c>
+      <c r="L130" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>185</v>
+      </c>
+      <c r="D131" t="s">
+        <v>192</v>
+      </c>
+      <c r="E131" t="s">
+        <v>192</v>
+      </c>
+      <c r="F131" t="s">
+        <v>185</v>
+      </c>
+      <c r="G131" t="s">
+        <v>186</v>
+      </c>
+      <c r="H131" t="s">
+        <v>220</v>
+      </c>
+      <c r="I131" t="s">
+        <v>197</v>
+      </c>
+      <c r="J131" t="s">
+        <v>222</v>
+      </c>
+      <c r="K131" t="s">
+        <v>243</v>
+      </c>
+      <c r="L131" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>102</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" t="s">
+        <v>193</v>
+      </c>
+      <c r="E132" t="s">
+        <v>192</v>
+      </c>
+      <c r="F132" t="s">
+        <v>185</v>
+      </c>
+      <c r="G132" t="s">
+        <v>186</v>
+      </c>
+      <c r="H132" t="s">
+        <v>226</v>
+      </c>
+      <c r="I132" t="s">
+        <v>187</v>
+      </c>
+      <c r="J132" t="s">
+        <v>202</v>
+      </c>
+      <c r="K132" t="s">
+        <v>258</v>
+      </c>
+      <c r="L132" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>185</v>
+      </c>
+      <c r="D133" t="s">
+        <v>209</v>
+      </c>
+      <c r="E133" t="s">
+        <v>209</v>
+      </c>
+      <c r="F133" t="s">
+        <v>185</v>
+      </c>
+      <c r="G133" t="s">
+        <v>186</v>
+      </c>
+      <c r="H133" t="s">
+        <v>220</v>
+      </c>
+      <c r="I133" t="s">
+        <v>187</v>
+      </c>
+      <c r="J133" t="s">
+        <v>202</v>
+      </c>
+      <c r="K133" t="s">
+        <v>234</v>
+      </c>
+      <c r="L133" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>185</v>
+      </c>
+      <c r="D134" t="s">
+        <v>191</v>
+      </c>
+      <c r="E134" t="s">
+        <v>192</v>
+      </c>
+      <c r="F134" t="s">
+        <v>185</v>
+      </c>
+      <c r="G134" t="s">
+        <v>186</v>
+      </c>
+      <c r="H134" t="s">
+        <v>251</v>
+      </c>
+      <c r="I134" t="s">
+        <v>187</v>
+      </c>
+      <c r="J134" t="s">
+        <v>202</v>
+      </c>
+      <c r="K134" t="s">
+        <v>227</v>
+      </c>
+      <c r="L134" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>163</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>185</v>
+      </c>
+      <c r="D135" t="s">
+        <v>205</v>
+      </c>
+      <c r="E135" t="s">
+        <v>205</v>
+      </c>
+      <c r="F135" t="s">
+        <v>185</v>
+      </c>
+      <c r="G135" t="s">
+        <v>186</v>
+      </c>
+      <c r="H135" t="s">
+        <v>220</v>
+      </c>
+      <c r="I135" t="s">
+        <v>187</v>
+      </c>
+      <c r="J135" t="s">
+        <v>238</v>
+      </c>
+      <c r="K135" t="s">
+        <v>245</v>
+      </c>
+      <c r="L135" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>185</v>
+      </c>
+      <c r="D136" t="s">
+        <v>191</v>
+      </c>
+      <c r="E136" t="s">
+        <v>192</v>
+      </c>
+      <c r="F136" t="s">
+        <v>185</v>
+      </c>
+      <c r="G136" t="s">
+        <v>186</v>
+      </c>
+      <c r="H136" t="s">
+        <v>224</v>
+      </c>
+      <c r="I136" t="s">
+        <v>187</v>
+      </c>
+      <c r="J136" t="s">
+        <v>249</v>
+      </c>
+      <c r="K136" t="s">
+        <v>227</v>
+      </c>
+      <c r="L136" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>185</v>
+      </c>
+      <c r="D137" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" t="s">
+        <v>185</v>
+      </c>
+      <c r="G137" t="s">
+        <v>186</v>
+      </c>
+      <c r="H137" t="s">
+        <v>220</v>
+      </c>
+      <c r="I137" t="s">
+        <v>187</v>
+      </c>
+      <c r="J137" t="s">
+        <v>202</v>
+      </c>
+      <c r="K137" t="s">
+        <v>221</v>
+      </c>
+      <c r="L137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>185</v>
+      </c>
+      <c r="D138" t="s">
+        <v>191</v>
+      </c>
+      <c r="E138" t="s">
+        <v>192</v>
+      </c>
+      <c r="F138" t="s">
+        <v>185</v>
+      </c>
+      <c r="G138" t="s">
+        <v>186</v>
+      </c>
+      <c r="H138" t="s">
+        <v>231</v>
+      </c>
+      <c r="I138" t="s">
+        <v>187</v>
+      </c>
+      <c r="J138" t="s">
+        <v>202</v>
+      </c>
+      <c r="K138" t="s">
+        <v>202</v>
+      </c>
+      <c r="L138" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>89</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>185</v>
+      </c>
+      <c r="D139" t="s">
         <v>188</v>
       </c>
-      <c r="E129" t="s">
-        <v>192</v>
-      </c>
-      <c r="F129" t="s">
-        <v>185</v>
-      </c>
-      <c r="G129" t="s">
-        <v>186</v>
-      </c>
-      <c r="H129" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>132</v>
-      </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
-        <v>210</v>
-      </c>
-      <c r="D130" t="s">
-        <v>211</v>
-      </c>
-      <c r="E130" t="s">
-        <v>211</v>
-      </c>
-      <c r="F130" t="s">
-        <v>210</v>
-      </c>
-      <c r="G130" t="s">
-        <v>186</v>
-      </c>
-      <c r="H130" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>133</v>
-      </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
-        <v>185</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="E139" t="s">
+        <v>192</v>
+      </c>
+      <c r="F139" t="s">
+        <v>185</v>
+      </c>
+      <c r="G139" t="s">
+        <v>186</v>
+      </c>
+      <c r="H139" t="s">
+        <v>220</v>
+      </c>
+      <c r="I139" t="s">
+        <v>187</v>
+      </c>
+      <c r="J139" t="s">
+        <v>202</v>
+      </c>
+      <c r="K139" t="s">
+        <v>242</v>
+      </c>
+      <c r="L139" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>108</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>185</v>
+      </c>
+      <c r="D140" t="s">
         <v>193</v>
       </c>
-      <c r="E131" t="s">
-        <v>192</v>
-      </c>
-      <c r="F131" t="s">
-        <v>185</v>
-      </c>
-      <c r="G131" t="s">
-        <v>186</v>
-      </c>
-      <c r="H131" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>134</v>
-      </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" t="s">
-        <v>185</v>
-      </c>
-      <c r="D132" t="s">
-        <v>191</v>
-      </c>
-      <c r="E132" t="s">
-        <v>192</v>
-      </c>
-      <c r="F132" t="s">
-        <v>185</v>
-      </c>
-      <c r="G132" t="s">
-        <v>186</v>
-      </c>
-      <c r="H132" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>135</v>
-      </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
-        <v>185</v>
-      </c>
-      <c r="D133" t="s">
-        <v>193</v>
-      </c>
-      <c r="E133" t="s">
-        <v>192</v>
-      </c>
-      <c r="F133" t="s">
-        <v>185</v>
-      </c>
-      <c r="G133" t="s">
-        <v>186</v>
-      </c>
-      <c r="H133" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>136</v>
-      </c>
-      <c r="B134" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" t="s">
-        <v>210</v>
-      </c>
-      <c r="D134" t="s">
-        <v>203</v>
-      </c>
-      <c r="E134" t="s">
-        <v>203</v>
-      </c>
-      <c r="F134" t="s">
-        <v>210</v>
-      </c>
-      <c r="G134" t="s">
-        <v>186</v>
-      </c>
-      <c r="H134" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>137</v>
-      </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
-        <v>185</v>
-      </c>
-      <c r="D135" t="s">
-        <v>192</v>
-      </c>
-      <c r="E135" t="s">
-        <v>192</v>
-      </c>
-      <c r="F135" t="s">
-        <v>185</v>
-      </c>
-      <c r="G135" t="s">
-        <v>186</v>
-      </c>
-      <c r="H135" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>138</v>
-      </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
-        <v>210</v>
-      </c>
-      <c r="D136" t="s">
-        <v>212</v>
-      </c>
-      <c r="E136" t="s">
-        <v>212</v>
-      </c>
-      <c r="F136" t="s">
-        <v>210</v>
-      </c>
-      <c r="G136" t="s">
-        <v>186</v>
-      </c>
-      <c r="H136" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>139</v>
-      </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
-        <v>185</v>
-      </c>
-      <c r="D137" t="s">
-        <v>193</v>
-      </c>
-      <c r="E137" t="s">
-        <v>213</v>
-      </c>
-      <c r="F137" t="s">
-        <v>185</v>
-      </c>
-      <c r="G137" t="s">
-        <v>186</v>
-      </c>
-      <c r="H137" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>140</v>
-      </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
-        <v>185</v>
-      </c>
-      <c r="D138" t="s">
-        <v>193</v>
-      </c>
-      <c r="E138" t="s">
-        <v>192</v>
-      </c>
-      <c r="F138" t="s">
-        <v>185</v>
-      </c>
-      <c r="G138" t="s">
-        <v>186</v>
-      </c>
-      <c r="H138" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
-        <v>185</v>
-      </c>
-      <c r="D139" t="s">
-        <v>193</v>
-      </c>
-      <c r="E139" t="s">
-        <v>192</v>
-      </c>
-      <c r="F139" t="s">
-        <v>185</v>
-      </c>
-      <c r="G139" t="s">
-        <v>186</v>
-      </c>
-      <c r="H139" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>142</v>
-      </c>
-      <c r="B140" t="s">
-        <v>6</v>
-      </c>
-      <c r="C140" t="s">
-        <v>189</v>
-      </c>
-      <c r="D140" t="s">
-        <v>188</v>
-      </c>
       <c r="E140" t="s">
         <v>192</v>
       </c>
       <c r="F140" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G140" t="s">
         <v>186</v>
       </c>
       <c r="H140" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I140" t="s">
+        <v>187</v>
+      </c>
+      <c r="J140" t="s">
+        <v>232</v>
+      </c>
+      <c r="K140" t="s">
+        <v>233</v>
+      </c>
+      <c r="L140" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -5188,12 +7041,24 @@
         <v>186</v>
       </c>
       <c r="H141" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="I141" t="s">
+        <v>187</v>
+      </c>
+      <c r="J141" t="s">
+        <v>249</v>
+      </c>
+      <c r="K141" t="s">
+        <v>227</v>
+      </c>
+      <c r="L141" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -5214,12 +7079,24 @@
         <v>186</v>
       </c>
       <c r="H142" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I142" t="s">
+        <v>187</v>
+      </c>
+      <c r="J142" t="s">
+        <v>202</v>
+      </c>
+      <c r="K142" t="s">
+        <v>202</v>
+      </c>
+      <c r="L142" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -5228,10 +7105,10 @@
         <v>185</v>
       </c>
       <c r="D143" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E143" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F143" t="s">
         <v>185</v>
@@ -5240,12 +7117,24 @@
         <v>186</v>
       </c>
       <c r="H143" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I143" t="s">
+        <v>197</v>
+      </c>
+      <c r="J143" t="s">
+        <v>202</v>
+      </c>
+      <c r="K143" t="s">
+        <v>256</v>
+      </c>
+      <c r="L143" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -5254,10 +7143,10 @@
         <v>185</v>
       </c>
       <c r="D144" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E144" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F144" t="s">
         <v>185</v>
@@ -5266,51 +7155,75 @@
         <v>186</v>
       </c>
       <c r="H144" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I144" t="s">
+        <v>187</v>
+      </c>
+      <c r="J144" t="s">
+        <v>232</v>
+      </c>
+      <c r="K144" t="s">
+        <v>233</v>
+      </c>
+      <c r="L144" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D145" t="s">
+        <v>188</v>
+      </c>
+      <c r="E145" t="s">
+        <v>188</v>
+      </c>
+      <c r="F145" t="s">
+        <v>185</v>
+      </c>
+      <c r="G145" t="s">
+        <v>186</v>
+      </c>
+      <c r="H145" t="s">
+        <v>220</v>
+      </c>
+      <c r="I145" t="s">
+        <v>187</v>
+      </c>
+      <c r="J145" t="s">
+        <v>202</v>
+      </c>
+      <c r="K145" t="s">
+        <v>256</v>
+      </c>
+      <c r="L145" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>88</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>185</v>
+      </c>
+      <c r="D146" t="s">
         <v>203</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E146" t="s">
         <v>203</v>
       </c>
-      <c r="F145" t="s">
-        <v>210</v>
-      </c>
-      <c r="G145" t="s">
-        <v>186</v>
-      </c>
-      <c r="H145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>148</v>
-      </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
-        <v>185</v>
-      </c>
-      <c r="D146" t="s">
-        <v>0</v>
-      </c>
-      <c r="E146" t="s">
-        <v>0</v>
-      </c>
       <c r="F146" t="s">
         <v>185</v>
       </c>
@@ -5318,12 +7231,24 @@
         <v>186</v>
       </c>
       <c r="H146" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I146" t="s">
+        <v>187</v>
+      </c>
+      <c r="J146" t="s">
+        <v>202</v>
+      </c>
+      <c r="K146" t="s">
+        <v>234</v>
+      </c>
+      <c r="L146" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -5332,34 +7257,46 @@
         <v>185</v>
       </c>
       <c r="D147" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" t="s">
+        <v>192</v>
+      </c>
+      <c r="F147" t="s">
+        <v>185</v>
+      </c>
+      <c r="G147" t="s">
+        <v>186</v>
+      </c>
+      <c r="H147" t="s">
+        <v>220</v>
+      </c>
+      <c r="I147" t="s">
+        <v>187</v>
+      </c>
+      <c r="J147" t="s">
+        <v>202</v>
+      </c>
+      <c r="K147" t="s">
+        <v>256</v>
+      </c>
+      <c r="L147" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>70</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>185</v>
+      </c>
+      <c r="D148" t="s">
         <v>191</v>
       </c>
-      <c r="E147" t="s">
-        <v>192</v>
-      </c>
-      <c r="F147" t="s">
-        <v>185</v>
-      </c>
-      <c r="G147" t="s">
-        <v>186</v>
-      </c>
-      <c r="H147" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>150</v>
-      </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
-        <v>185</v>
-      </c>
-      <c r="D148" t="s">
-        <v>193</v>
-      </c>
       <c r="E148" t="s">
         <v>192</v>
       </c>
@@ -5370,12 +7307,24 @@
         <v>186</v>
       </c>
       <c r="H148" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I148" t="s">
+        <v>187</v>
+      </c>
+      <c r="J148" t="s">
+        <v>248</v>
+      </c>
+      <c r="K148" t="s">
+        <v>227</v>
+      </c>
+      <c r="L148" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
@@ -5396,12 +7345,24 @@
         <v>186</v>
       </c>
       <c r="H149" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I149" t="s">
+        <v>187</v>
+      </c>
+      <c r="J149" t="s">
+        <v>244</v>
+      </c>
+      <c r="K149" t="s">
+        <v>242</v>
+      </c>
+      <c r="L149" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
@@ -5413,7 +7374,7 @@
         <v>193</v>
       </c>
       <c r="E150" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F150" t="s">
         <v>185</v>
@@ -5422,12 +7383,24 @@
         <v>186</v>
       </c>
       <c r="H150" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="I150" t="s">
+        <v>187</v>
+      </c>
+      <c r="J150" t="s">
+        <v>249</v>
+      </c>
+      <c r="K150" t="s">
+        <v>256</v>
+      </c>
+      <c r="L150" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -5436,7 +7409,7 @@
         <v>185</v>
       </c>
       <c r="D151" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E151" t="s">
         <v>192</v>
@@ -5448,12 +7421,24 @@
         <v>186</v>
       </c>
       <c r="H151" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I151" t="s">
+        <v>187</v>
+      </c>
+      <c r="J151" t="s">
+        <v>202</v>
+      </c>
+      <c r="K151" t="s">
+        <v>229</v>
+      </c>
+      <c r="L151" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -5465,7 +7450,7 @@
         <v>188</v>
       </c>
       <c r="E152" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F152" t="s">
         <v>185</v>
@@ -5474,128 +7459,188 @@
         <v>186</v>
       </c>
       <c r="H152" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I152" t="s">
+        <v>187</v>
+      </c>
+      <c r="J152" t="s">
+        <v>202</v>
+      </c>
+      <c r="K152" t="s">
+        <v>245</v>
+      </c>
+      <c r="L152" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>95</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>185</v>
+      </c>
+      <c r="D153" t="s">
+        <v>200</v>
+      </c>
+      <c r="E153" t="s">
+        <v>200</v>
+      </c>
+      <c r="F153" t="s">
+        <v>185</v>
+      </c>
+      <c r="G153" t="s">
+        <v>186</v>
+      </c>
+      <c r="H153" t="s">
+        <v>220</v>
+      </c>
+      <c r="I153" t="s">
+        <v>187</v>
+      </c>
+      <c r="J153" t="s">
+        <v>249</v>
+      </c>
+      <c r="K153" t="s">
+        <v>258</v>
+      </c>
+      <c r="L153" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>35</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>185</v>
+      </c>
+      <c r="D154" t="s">
+        <v>193</v>
+      </c>
+      <c r="E154" t="s">
+        <v>192</v>
+      </c>
+      <c r="F154" t="s">
+        <v>185</v>
+      </c>
+      <c r="G154" t="s">
+        <v>186</v>
+      </c>
+      <c r="H154" t="s">
+        <v>220</v>
+      </c>
+      <c r="I154" t="s">
+        <v>187</v>
+      </c>
+      <c r="J154" t="s">
+        <v>202</v>
+      </c>
+      <c r="K154" t="s">
+        <v>202</v>
+      </c>
+      <c r="L154" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>155</v>
       </c>
-      <c r="B153" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
-        <v>185</v>
-      </c>
-      <c r="D153" t="s">
-        <v>192</v>
-      </c>
-      <c r="E153" t="s">
-        <v>192</v>
-      </c>
-      <c r="F153" t="s">
-        <v>185</v>
-      </c>
-      <c r="G153" t="s">
-        <v>186</v>
-      </c>
-      <c r="H153" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>156</v>
-      </c>
-      <c r="B154" t="s">
-        <v>6</v>
-      </c>
-      <c r="C154" t="s">
-        <v>189</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>185</v>
+      </c>
+      <c r="D155" t="s">
+        <v>192</v>
+      </c>
+      <c r="E155" t="s">
+        <v>192</v>
+      </c>
+      <c r="F155" t="s">
+        <v>185</v>
+      </c>
+      <c r="G155" t="s">
+        <v>186</v>
+      </c>
+      <c r="H155" t="s">
+        <v>220</v>
+      </c>
+      <c r="I155" t="s">
+        <v>187</v>
+      </c>
+      <c r="J155" t="s">
+        <v>244</v>
+      </c>
+      <c r="K155" t="s">
+        <v>242</v>
+      </c>
+      <c r="L155" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>77</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>185</v>
+      </c>
+      <c r="D156" t="s">
+        <v>191</v>
+      </c>
+      <c r="E156" t="s">
         <v>188</v>
       </c>
-      <c r="E154" t="s">
-        <v>192</v>
-      </c>
-      <c r="F154" t="s">
-        <v>189</v>
-      </c>
-      <c r="G154" t="s">
-        <v>186</v>
-      </c>
-      <c r="H154" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>157</v>
-      </c>
-      <c r="B155" t="s">
-        <v>6</v>
-      </c>
-      <c r="C155" t="s">
-        <v>189</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="F156" t="s">
+        <v>185</v>
+      </c>
+      <c r="G156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H156" t="s">
+        <v>220</v>
+      </c>
+      <c r="I156" t="s">
+        <v>187</v>
+      </c>
+      <c r="J156" t="s">
+        <v>202</v>
+      </c>
+      <c r="K156" t="s">
+        <v>258</v>
+      </c>
+      <c r="L156" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>52</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>185</v>
+      </c>
+      <c r="D157" t="s">
         <v>188</v>
       </c>
-      <c r="E155" t="s">
-        <v>192</v>
-      </c>
-      <c r="F155" t="s">
-        <v>189</v>
-      </c>
-      <c r="G155" t="s">
-        <v>186</v>
-      </c>
-      <c r="H155" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>158</v>
-      </c>
-      <c r="B156" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" t="s">
-        <v>189</v>
-      </c>
-      <c r="D156" t="s">
-        <v>188</v>
-      </c>
-      <c r="E156" t="s">
-        <v>192</v>
-      </c>
-      <c r="F156" t="s">
-        <v>189</v>
-      </c>
-      <c r="G156" t="s">
-        <v>186</v>
-      </c>
-      <c r="H156" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>159</v>
-      </c>
-      <c r="B157" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" t="s">
-        <v>185</v>
-      </c>
-      <c r="D157" t="s">
-        <v>214</v>
-      </c>
       <c r="E157" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="F157" t="s">
         <v>185</v>
@@ -5604,12 +7649,24 @@
         <v>186</v>
       </c>
       <c r="H157" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I157" t="s">
+        <v>187</v>
+      </c>
+      <c r="J157" t="s">
+        <v>202</v>
+      </c>
+      <c r="K157" t="s">
+        <v>202</v>
+      </c>
+      <c r="L157" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -5621,60 +7678,84 @@
         <v>188</v>
       </c>
       <c r="E158" t="s">
+        <v>192</v>
+      </c>
+      <c r="F158" t="s">
+        <v>185</v>
+      </c>
+      <c r="G158" t="s">
+        <v>186</v>
+      </c>
+      <c r="H158" t="s">
+        <v>220</v>
+      </c>
+      <c r="I158" t="s">
+        <v>187</v>
+      </c>
+      <c r="J158" t="s">
+        <v>202</v>
+      </c>
+      <c r="K158" t="s">
+        <v>221</v>
+      </c>
+      <c r="L158" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>112</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>185</v>
+      </c>
+      <c r="D159" t="s">
+        <v>193</v>
+      </c>
+      <c r="E159" t="s">
+        <v>206</v>
+      </c>
+      <c r="F159" t="s">
+        <v>185</v>
+      </c>
+      <c r="G159" t="s">
+        <v>186</v>
+      </c>
+      <c r="H159" t="s">
+        <v>254</v>
+      </c>
+      <c r="I159" t="s">
+        <v>187</v>
+      </c>
+      <c r="J159" t="s">
+        <v>266</v>
+      </c>
+      <c r="K159" t="s">
+        <v>221</v>
+      </c>
+      <c r="L159" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>59</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>185</v>
+      </c>
+      <c r="D160" t="s">
         <v>188</v>
       </c>
-      <c r="F158" t="s">
-        <v>185</v>
-      </c>
-      <c r="G158" t="s">
-        <v>186</v>
-      </c>
-      <c r="H158" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>161</v>
-      </c>
-      <c r="B159" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" t="s">
-        <v>185</v>
-      </c>
-      <c r="D159" t="s">
-        <v>196</v>
-      </c>
-      <c r="E159" t="s">
-        <v>196</v>
-      </c>
-      <c r="F159" t="s">
-        <v>185</v>
-      </c>
-      <c r="G159" t="s">
-        <v>186</v>
-      </c>
-      <c r="H159" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>162</v>
-      </c>
-      <c r="B160" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
-        <v>185</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>195</v>
       </c>
-      <c r="E160" t="s">
-        <v>0</v>
-      </c>
       <c r="F160" t="s">
         <v>185</v>
       </c>
@@ -5682,38 +7763,62 @@
         <v>186</v>
       </c>
       <c r="H160" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I160" t="s">
+        <v>187</v>
+      </c>
+      <c r="J160" t="s">
+        <v>232</v>
+      </c>
+      <c r="K160" t="s">
+        <v>221</v>
+      </c>
+      <c r="L160" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D161" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E161" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F161" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G161" t="s">
         <v>186</v>
       </c>
       <c r="H161" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I161" t="s">
+        <v>190</v>
+      </c>
+      <c r="J161" t="s">
+        <v>225</v>
+      </c>
+      <c r="K161" t="s">
+        <v>225</v>
+      </c>
+      <c r="L161" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
@@ -5722,7 +7827,7 @@
         <v>185</v>
       </c>
       <c r="D162" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E162" t="s">
         <v>192</v>
@@ -5734,12 +7839,24 @@
         <v>186</v>
       </c>
       <c r="H162" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I162" t="s">
+        <v>187</v>
+      </c>
+      <c r="J162" t="s">
+        <v>202</v>
+      </c>
+      <c r="K162" t="s">
+        <v>202</v>
+      </c>
+      <c r="L162" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
@@ -5751,7 +7868,7 @@
         <v>191</v>
       </c>
       <c r="E163" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F163" t="s">
         <v>185</v>
@@ -5760,12 +7877,24 @@
         <v>186</v>
       </c>
       <c r="H163" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I163" t="s">
+        <v>187</v>
+      </c>
+      <c r="J163" t="s">
+        <v>202</v>
+      </c>
+      <c r="K163" t="s">
+        <v>237</v>
+      </c>
+      <c r="L163" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -5786,12 +7915,24 @@
         <v>186</v>
       </c>
       <c r="H164" t="s">
+        <v>247</v>
+      </c>
+      <c r="I164" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J164" t="s">
+        <v>225</v>
+      </c>
+      <c r="K164" t="s">
+        <v>225</v>
+      </c>
+      <c r="L164" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B165" t="s">
         <v>3</v>
@@ -5800,10 +7941,10 @@
         <v>185</v>
       </c>
       <c r="D165" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E165" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="F165" t="s">
         <v>185</v>
@@ -5812,12 +7953,24 @@
         <v>186</v>
       </c>
       <c r="H165" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I165" t="s">
+        <v>187</v>
+      </c>
+      <c r="J165" t="s">
+        <v>202</v>
+      </c>
+      <c r="K165" t="s">
+        <v>202</v>
+      </c>
+      <c r="L165" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="B166" t="s">
         <v>3</v>
@@ -5826,10 +7979,10 @@
         <v>185</v>
       </c>
       <c r="D166" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E166" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F166" t="s">
         <v>185</v>
@@ -5838,12 +7991,24 @@
         <v>186</v>
       </c>
       <c r="H166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="I166" t="s">
+        <v>187</v>
+      </c>
+      <c r="J166" t="s">
+        <v>261</v>
+      </c>
+      <c r="K166" t="s">
+        <v>245</v>
+      </c>
+      <c r="L166" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
@@ -5852,50 +8017,74 @@
         <v>185</v>
       </c>
       <c r="D167" t="s">
+        <v>200</v>
+      </c>
+      <c r="E167" t="s">
+        <v>200</v>
+      </c>
+      <c r="F167" t="s">
+        <v>185</v>
+      </c>
+      <c r="G167" t="s">
+        <v>186</v>
+      </c>
+      <c r="H167" t="s">
+        <v>231</v>
+      </c>
+      <c r="I167" t="s">
+        <v>187</v>
+      </c>
+      <c r="J167" t="s">
+        <v>238</v>
+      </c>
+      <c r="K167" t="s">
+        <v>237</v>
+      </c>
+      <c r="L167" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>98</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>185</v>
+      </c>
+      <c r="D168" t="s">
         <v>193</v>
       </c>
-      <c r="E167" t="s">
-        <v>192</v>
-      </c>
-      <c r="F167" t="s">
-        <v>185</v>
-      </c>
-      <c r="G167" t="s">
-        <v>186</v>
-      </c>
-      <c r="H167" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>170</v>
-      </c>
-      <c r="B168" t="s">
-        <v>6</v>
-      </c>
-      <c r="C168" t="s">
-        <v>189</v>
-      </c>
-      <c r="D168" t="s">
-        <v>188</v>
-      </c>
       <c r="E168" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F168" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G168" t="s">
         <v>186</v>
       </c>
       <c r="H168" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I168" t="s">
+        <v>187</v>
+      </c>
+      <c r="J168" t="s">
+        <v>244</v>
+      </c>
+      <c r="K168" t="s">
+        <v>242</v>
+      </c>
+      <c r="L168" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="B169" t="s">
         <v>3</v>
@@ -5916,38 +8105,62 @@
         <v>186</v>
       </c>
       <c r="H169" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I169" t="s">
+        <v>187</v>
+      </c>
+      <c r="J169" t="s">
+        <v>202</v>
+      </c>
+      <c r="K169" t="s">
+        <v>202</v>
+      </c>
+      <c r="L169" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D170" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="E170" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="F170" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G170" t="s">
         <v>186</v>
       </c>
       <c r="H170" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I170" t="s">
+        <v>190</v>
+      </c>
+      <c r="J170" t="s">
+        <v>225</v>
+      </c>
+      <c r="K170" t="s">
+        <v>225</v>
+      </c>
+      <c r="L170" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="B171" t="s">
         <v>3</v>
@@ -5956,10 +8169,10 @@
         <v>185</v>
       </c>
       <c r="D171" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E171" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F171" t="s">
         <v>185</v>
@@ -5968,12 +8181,24 @@
         <v>186</v>
       </c>
       <c r="H171" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="I171" t="s">
+        <v>187</v>
+      </c>
+      <c r="J171" t="s">
+        <v>268</v>
+      </c>
+      <c r="K171" t="s">
+        <v>202</v>
+      </c>
+      <c r="L171" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
@@ -5985,7 +8210,7 @@
         <v>191</v>
       </c>
       <c r="E172" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F172" t="s">
         <v>185</v>
@@ -5994,12 +8219,24 @@
         <v>186</v>
       </c>
       <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I172" t="s">
+        <v>187</v>
+      </c>
+      <c r="J172" t="s">
+        <v>202</v>
+      </c>
+      <c r="K172" t="s">
+        <v>202</v>
+      </c>
+      <c r="L172" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
@@ -6020,12 +8257,24 @@
         <v>186</v>
       </c>
       <c r="H173" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="I173" t="s">
+        <v>187</v>
+      </c>
+      <c r="J173" t="s">
+        <v>232</v>
+      </c>
+      <c r="K173" t="s">
+        <v>233</v>
+      </c>
+      <c r="L173" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
@@ -6034,10 +8283,10 @@
         <v>185</v>
       </c>
       <c r="D174" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E174" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F174" t="s">
         <v>185</v>
@@ -6046,12 +8295,24 @@
         <v>186</v>
       </c>
       <c r="H174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I174" t="s">
+        <v>187</v>
+      </c>
+      <c r="J174" t="s">
+        <v>232</v>
+      </c>
+      <c r="K174" t="s">
+        <v>233</v>
+      </c>
+      <c r="L174" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
@@ -6060,10 +8321,10 @@
         <v>185</v>
       </c>
       <c r="D175" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E175" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F175" t="s">
         <v>185</v>
@@ -6072,12 +8333,24 @@
         <v>186</v>
       </c>
       <c r="H175" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I175" t="s">
+        <v>187</v>
+      </c>
+      <c r="J175" t="s">
+        <v>235</v>
+      </c>
+      <c r="K175" t="s">
+        <v>256</v>
+      </c>
+      <c r="L175" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
@@ -6086,10 +8359,10 @@
         <v>185</v>
       </c>
       <c r="D176" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E176" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F176" t="s">
         <v>185</v>
@@ -6098,12 +8371,24 @@
         <v>186</v>
       </c>
       <c r="H176" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="I176" t="s">
+        <v>187</v>
+      </c>
+      <c r="J176" t="s">
+        <v>248</v>
+      </c>
+      <c r="K176" t="s">
+        <v>245</v>
+      </c>
+      <c r="L176" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
@@ -6124,7 +8409,19 @@
         <v>186</v>
       </c>
       <c r="H177" t="s">
-        <v>187</v>
+        <v>220</v>
+      </c>
+      <c r="I177" t="s">
+        <v>187</v>
+      </c>
+      <c r="J177" t="s">
+        <v>232</v>
+      </c>
+      <c r="K177" t="s">
+        <v>233</v>
+      </c>
+      <c r="L177" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
